--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H2">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.741242404255645</v>
+        <v>0.757644</v>
       </c>
       <c r="N2">
-        <v>0.741242404255645</v>
+        <v>2.272932</v>
       </c>
       <c r="O2">
-        <v>0.02516332029267759</v>
+        <v>0.02401898721285653</v>
       </c>
       <c r="P2">
-        <v>0.02516332029267759</v>
+        <v>0.02518910262217759</v>
       </c>
       <c r="Q2">
-        <v>0.275454664473253</v>
+        <v>0.294269939792</v>
       </c>
       <c r="R2">
-        <v>0.275454664473253</v>
+        <v>2.648429458128</v>
       </c>
       <c r="S2">
-        <v>0.02516332029267759</v>
+        <v>0.02401898721285653</v>
       </c>
       <c r="T2">
-        <v>0.02516332029267759</v>
+        <v>0.02518910262217759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H3">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.4661461876977</v>
+        <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>23.4661461876977</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.7966168006116678</v>
+        <v>0.8001381730141521</v>
       </c>
       <c r="P3">
-        <v>0.7966168006116678</v>
+        <v>0.8391179183936208</v>
       </c>
       <c r="Q3">
-        <v>8.720304434152785</v>
+        <v>9.802936731325779</v>
       </c>
       <c r="R3">
-        <v>8.720304434152785</v>
+        <v>88.22643058193202</v>
       </c>
       <c r="S3">
-        <v>0.7966168006116678</v>
+        <v>0.8001381730141521</v>
       </c>
       <c r="T3">
-        <v>0.7966168006116678</v>
+        <v>0.8391179183936208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H4">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.494130275780154</v>
+        <v>0.6151326666666667</v>
       </c>
       <c r="N4">
-        <v>0.494130275780154</v>
+        <v>1.845398</v>
       </c>
       <c r="O4">
-        <v>0.01677448338678262</v>
+        <v>0.0195010633686494</v>
       </c>
       <c r="P4">
-        <v>0.01677448338678262</v>
+        <v>0.02045108239083319</v>
       </c>
       <c r="Q4">
-        <v>0.1836248014679898</v>
+        <v>0.2389183479102222</v>
       </c>
       <c r="R4">
-        <v>0.1836248014679898</v>
+        <v>2.150265131192</v>
       </c>
       <c r="S4">
-        <v>0.01677448338678262</v>
+        <v>0.0195010633686494</v>
       </c>
       <c r="T4">
-        <v>0.01677448338678262</v>
+        <v>0.02045108239083319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H5">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5065132849578</v>
+        <v>0.5356743333333333</v>
       </c>
       <c r="N5">
-        <v>0.5065132849578</v>
+        <v>1.607023</v>
       </c>
       <c r="O5">
-        <v>0.01719485548683426</v>
+        <v>0.01698205880675987</v>
       </c>
       <c r="P5">
-        <v>0.01719485548683426</v>
+        <v>0.01780936132853939</v>
       </c>
       <c r="Q5">
-        <v>0.188226477813831</v>
+        <v>0.2080566252991111</v>
       </c>
       <c r="R5">
-        <v>0.188226477813831</v>
+        <v>1.872509627692</v>
       </c>
       <c r="S5">
-        <v>0.01719485548683426</v>
+        <v>0.01698205880675987</v>
       </c>
       <c r="T5">
-        <v>0.01719485548683426</v>
+        <v>0.01780936132853939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H6">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.24922530118068</v>
+        <v>4.395899500000001</v>
       </c>
       <c r="N6">
-        <v>4.24922530118068</v>
+        <v>8.791799000000001</v>
       </c>
       <c r="O6">
-        <v>0.1442505402220377</v>
+        <v>0.139359717597582</v>
       </c>
       <c r="P6">
-        <v>0.1442505402220377</v>
+        <v>0.09743253526482902</v>
       </c>
       <c r="Q6">
-        <v>1.579063640838742</v>
+        <v>1.707373226999334</v>
       </c>
       <c r="R6">
-        <v>1.579063640838742</v>
+        <v>10.244239361996</v>
       </c>
       <c r="S6">
-        <v>0.1442505402220377</v>
+        <v>0.139359717597582</v>
       </c>
       <c r="T6">
-        <v>0.1442505402220377</v>
+        <v>0.09743253526482902</v>
       </c>
     </row>
   </sheetData>
